--- a/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="321">
   <si>
     <t>PERIOD</t>
   </si>
@@ -991,6 +991,12 @@
   </si>
   <si>
     <t>10/17-20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/2-4/2024</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1865,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1908,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1972,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2032,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2098,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2161,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2259,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2318,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2383,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2426,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2501,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,7 +2687,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2753,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2811,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2877,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2933,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3008,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3051,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3117,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3173,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3271,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3334,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,8 +3400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K512" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K512"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K514" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K514"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3773,12 +3779,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K512"/>
+  <dimension ref="A2:K514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A358" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A352" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K371" sqref="K371"/>
+      <selection pane="bottomLeft" activeCell="K376" sqref="K376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,7 +3947,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-9.1440000000000889</v>
+        <v>-11.644000000000089</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3951,7 +3957,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.300000000000011</v>
+        <v>37.800000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12102,13 +12108,15 @@
         <v>45231</v>
       </c>
       <c r="B372" s="20"/>
-      <c r="C372" s="13"/>
+      <c r="C372" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D372" s="39"/>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G372" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H372" s="39"/>
       <c r="I372" s="9"/>
@@ -12119,14 +12127,20 @@
       <c r="A373" s="40">
         <v>45261</v>
       </c>
-      <c r="B373" s="20"/>
-      <c r="C373" s="13"/>
-      <c r="D373" s="39"/>
+      <c r="B373" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C373" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D373" s="39">
+        <v>5</v>
+      </c>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G373" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
@@ -12134,8 +12148,8 @@
       <c r="K373" s="20"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="40">
-        <v>45292</v>
+      <c r="A374" s="47" t="s">
+        <v>319</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -12153,9 +12167,11 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B375" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39"/>
       <c r="E375" s="9"/>
@@ -12167,13 +12183,15 @@
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
+      <c r="K375" s="20" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B376" s="20"/>
+      <c r="A376" s="40"/>
+      <c r="B376" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
@@ -12182,14 +12200,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H376" s="39"/>
+      <c r="H376" s="39">
+        <v>1</v>
+      </c>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
+      <c r="K376" s="50">
+        <v>45296</v>
+      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -12207,7 +12229,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -12225,7 +12247,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -12243,7 +12265,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -12261,7 +12283,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -12279,7 +12301,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -12297,7 +12319,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -12315,7 +12337,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -12333,7 +12355,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -12351,7 +12373,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -12369,7 +12391,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -12387,7 +12409,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12405,7 +12427,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12423,7 +12445,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12441,7 +12463,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12459,7 +12481,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12477,7 +12499,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12495,7 +12517,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12513,7 +12535,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12531,7 +12553,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12549,7 +12571,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -12567,7 +12589,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -12585,7 +12607,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -12603,7 +12625,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -12621,7 +12643,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -12639,7 +12661,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -12657,7 +12679,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -12675,7 +12697,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12693,7 +12715,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12711,7 +12733,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12729,7 +12751,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12747,7 +12769,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12765,7 +12787,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12783,7 +12805,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12801,7 +12823,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12819,7 +12841,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12837,7 +12859,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -12855,7 +12877,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -12873,7 +12895,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12891,7 +12913,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12909,7 +12931,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12927,7 +12949,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12945,7 +12967,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12963,7 +12985,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12981,7 +13003,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12999,7 +13021,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -13017,7 +13039,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -13035,7 +13057,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -13053,7 +13075,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -13071,7 +13093,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -13089,7 +13111,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -13107,7 +13129,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -13125,7 +13147,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -13143,7 +13165,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -13161,7 +13183,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -13179,7 +13201,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -13197,7 +13219,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -13215,7 +13237,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -13233,7 +13255,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -13251,7 +13273,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -13269,7 +13291,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -13287,7 +13309,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13305,7 +13327,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13323,7 +13345,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13341,7 +13363,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13359,7 +13381,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13377,7 +13399,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13395,7 +13417,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13413,7 +13435,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13431,7 +13453,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13449,7 +13471,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13467,7 +13489,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13485,7 +13507,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13503,7 +13525,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13521,7 +13543,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13539,7 +13561,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13557,7 +13579,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13575,7 +13597,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13593,7 +13615,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13611,7 +13633,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13629,7 +13651,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13647,7 +13669,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13665,7 +13687,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13683,7 +13705,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13701,7 +13723,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13719,7 +13741,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -13737,7 +13759,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -13755,7 +13777,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -13773,7 +13795,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -13791,7 +13813,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -13809,7 +13831,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -13827,7 +13849,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13845,7 +13867,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -13863,7 +13885,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -13881,7 +13903,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -13899,7 +13921,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -13917,7 +13939,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -13935,7 +13957,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13953,7 +13975,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13971,7 +13993,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -13989,7 +14011,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14007,7 +14029,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14025,7 +14047,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14043,7 +14065,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14061,7 +14083,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14079,7 +14101,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14097,7 +14119,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14115,7 +14137,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14133,7 +14155,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14151,7 +14173,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14169,7 +14191,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14187,7 +14209,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14205,7 +14227,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14223,7 +14245,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14241,7 +14263,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14259,7 +14281,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14277,7 +14299,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14295,7 +14317,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14313,7 +14335,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14331,7 +14353,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14349,7 +14371,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14367,7 +14389,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14385,7 +14407,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14403,7 +14425,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14421,7 +14443,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14439,7 +14461,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14457,7 +14479,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14475,7 +14497,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14493,7 +14515,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14511,7 +14533,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>49310</v>
+        <v>49249</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14529,7 +14551,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>49341</v>
+        <v>49279</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14547,7 +14569,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>49369</v>
+        <v>49310</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14565,7 +14587,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>49400</v>
+        <v>49341</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14583,7 +14605,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>49430</v>
+        <v>49369</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14601,7 +14623,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>49461</v>
+        <v>49400</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14619,7 +14641,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>49491</v>
+        <v>49430</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14634,6 +14656,42 @@
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="40">
+        <v>49461</v>
+      </c>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="40">
+        <v>49491</v>
+      </c>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="321">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1865,7 +1865,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1972,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2098,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2161,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2318,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2426,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2501,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2811,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2877,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2933,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,7 +3008,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3051,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3117,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3173,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3271,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3334,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3392,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -3782,9 +3782,9 @@
   <dimension ref="A2:K514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A352" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K376" sqref="K376"/>
+      <pane ySplit="3690" topLeftCell="A335" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8081,18 +8081,14 @@
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
       <c r="D189" s="39"/>
-      <c r="E189" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E189" s="34"/>
       <c r="F189" s="20"/>
       <c r="G189" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H189" s="39"/>
-      <c r="I189" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I189" s="34"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>

--- a/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86205E-321B-4059-A975-0551A2B4CAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="318">
   <si>
     <t>PERIOD</t>
   </si>
@@ -801,12 +802,6 @@
     <t>UT(5-1-15)</t>
   </si>
   <si>
-    <t>UT(4-0-0)</t>
-  </si>
-  <si>
-    <t>UT(5-0-0)</t>
-  </si>
-  <si>
     <t>UT(1-1-54)</t>
   </si>
   <si>
@@ -856,9 +851,6 @@
   </si>
   <si>
     <t>UT(3-4-0)</t>
-  </si>
-  <si>
-    <t>UT(5-1-37)</t>
   </si>
   <si>
     <t>10/2,3,4</t>
@@ -1002,7 +994,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1865,7 +1857,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1900,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1964,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2024,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2090,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2153,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2251,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2310,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2375,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2418,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2493,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2679,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2745,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2803,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2869,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2925,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,7 +3000,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3043,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3109,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3165,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3263,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3326,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3375,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3400,26 +3392,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K514" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K514"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K513" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3431,13 +3423,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3446,14 +3438,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3757,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3767,7 +3759,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3775,34 +3767,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K514"/>
+  <dimension ref="A2:K513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A335" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A247" activePane="bottomLeft"/>
+      <selection activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3823,12 +3815,12 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
@@ -3843,19 +3835,19 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
@@ -3865,7 +3857,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3873,7 +3865,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3886,7 +3878,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3903,7 +3895,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3947,7 +3939,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-11.644000000000089</v>
+        <v>2.5579999999999092</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3962,7 +3954,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3984,7 +3976,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>38718</v>
       </c>
@@ -4010,7 +4002,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -4032,7 +4024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>53</v>
@@ -4052,7 +4044,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>38749</v>
       </c>
@@ -4078,7 +4070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -4098,7 +4090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>56</v>
@@ -4118,7 +4110,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>38777</v>
       </c>
@@ -4142,7 +4134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>61</v>
@@ -4166,7 +4158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>62</v>
@@ -4188,7 +4180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>38808</v>
       </c>
@@ -4212,7 +4204,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>38838</v>
       </c>
@@ -4238,7 +4230,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>67</v>
@@ -4258,7 +4250,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>38869</v>
       </c>
@@ -4284,7 +4276,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>66</v>
@@ -4306,7 +4298,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>68</v>
@@ -4326,7 +4318,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>38899</v>
       </c>
@@ -4352,7 +4344,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>54</v>
@@ -4378,7 +4370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>69</v>
@@ -4398,7 +4390,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>38930</v>
       </c>
@@ -4424,7 +4416,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>71</v>
@@ -4448,7 +4440,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>72</v>
@@ -4472,7 +4464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>73</v>
@@ -4494,7 +4486,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>38961</v>
       </c>
@@ -4520,7 +4512,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>71</v>
@@ -4542,7 +4534,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -4564,7 +4556,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>75</v>
@@ -4586,7 +4578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>38991</v>
       </c>
@@ -4612,7 +4604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>54</v>
@@ -4634,7 +4626,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>78</v>
@@ -4654,7 +4646,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>39022</v>
       </c>
@@ -4678,7 +4670,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>39052</v>
       </c>
@@ -4702,7 +4694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>82</v>
@@ -4722,7 +4714,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>44</v>
       </c>
@@ -4744,7 +4736,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>39083</v>
       </c>
@@ -4770,7 +4762,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>71</v>
@@ -4794,7 +4786,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4814,7 +4806,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -4836,7 +4828,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>54</v>
@@ -4858,7 +4850,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>66</v>
@@ -4880,7 +4872,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -4902,7 +4894,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
@@ -4920,7 +4912,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>85</v>
@@ -4940,7 +4932,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>39114</v>
       </c>
@@ -4966,7 +4958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4988,7 +4980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -5008,7 +5000,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>39142</v>
       </c>
@@ -5032,7 +5024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>92</v>
@@ -5054,7 +5046,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>93</v>
@@ -5076,7 +5068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>94</v>
@@ -5096,7 +5088,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>39173</v>
       </c>
@@ -5120,7 +5112,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>39203</v>
       </c>
@@ -5146,7 +5138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -5166,7 +5158,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>39234</v>
       </c>
@@ -5192,7 +5184,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -5216,7 +5208,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>104</v>
@@ -5236,7 +5228,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>39264</v>
       </c>
@@ -5264,7 +5256,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>106</v>
@@ -5284,7 +5276,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>39295</v>
       </c>
@@ -5308,7 +5300,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>39326</v>
       </c>
@@ -5334,7 +5326,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>108</v>
@@ -5356,7 +5348,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>109</v>
@@ -5376,7 +5368,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>39356</v>
       </c>
@@ -5400,7 +5392,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>39387</v>
       </c>
@@ -5424,7 +5416,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>39417</v>
       </c>
@@ -5450,7 +5442,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>114</v>
@@ -5472,7 +5464,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>116</v>
@@ -5494,7 +5486,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
         <v>45</v>
       </c>
@@ -5516,7 +5508,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>39448</v>
       </c>
@@ -5540,7 +5532,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>39479</v>
       </c>
@@ -5564,7 +5556,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>39508</v>
       </c>
@@ -5590,7 +5582,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>55</v>
@@ -5610,7 +5602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -5630,7 +5622,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>39539</v>
       </c>
@@ -5656,7 +5648,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>39569</v>
       </c>
@@ -5680,7 +5672,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>66</v>
@@ -5702,7 +5694,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -5724,7 +5716,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>66</v>
@@ -5746,7 +5738,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>39600</v>
       </c>
@@ -5766,7 +5758,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39630</v>
       </c>
@@ -5790,7 +5782,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>39661</v>
       </c>
@@ -5816,7 +5808,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>126</v>
@@ -5836,7 +5828,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>39692</v>
       </c>
@@ -5860,7 +5852,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>39722</v>
       </c>
@@ -5886,7 +5878,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -5906,7 +5898,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>39753</v>
       </c>
@@ -5930,7 +5922,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>39783</v>
       </c>
@@ -5956,7 +5948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
         <v>46</v>
       </c>
@@ -5978,7 +5970,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>39814</v>
       </c>
@@ -6004,7 +5996,7 @@
         <v>39818</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>52</v>
@@ -6028,7 +6020,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>132</v>
@@ -6048,7 +6040,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>39845</v>
       </c>
@@ -6072,7 +6064,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>135</v>
@@ -6092,7 +6084,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="48"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39873</v>
       </c>
@@ -6112,7 +6104,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>39904</v>
       </c>
@@ -6136,7 +6128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>54</v>
@@ -6158,7 +6150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>39934</v>
       </c>
@@ -6178,7 +6170,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>39965</v>
       </c>
@@ -6198,7 +6190,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>39995</v>
       </c>
@@ -6218,7 +6210,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>40026</v>
       </c>
@@ -6244,7 +6236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>40057</v>
       </c>
@@ -6264,7 +6256,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>40087</v>
       </c>
@@ -6288,7 +6280,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>40118</v>
       </c>
@@ -6314,7 +6306,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>40148</v>
       </c>
@@ -6340,7 +6332,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>47</v>
       </c>
@@ -6362,7 +6354,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>40179</v>
       </c>
@@ -6382,7 +6374,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>40210</v>
       </c>
@@ -6402,7 +6394,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40238</v>
       </c>
@@ -6428,7 +6420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>54</v>
@@ -6450,7 +6442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>40269</v>
       </c>
@@ -6470,7 +6462,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>40299</v>
       </c>
@@ -6496,7 +6488,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>136</v>
@@ -6516,7 +6508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>54</v>
@@ -6538,7 +6530,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>40330</v>
       </c>
@@ -6558,7 +6550,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>40360</v>
       </c>
@@ -6582,7 +6574,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>40391</v>
       </c>
@@ -6606,7 +6598,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>54</v>
@@ -6628,7 +6620,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>52</v>
@@ -6650,7 +6642,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>66</v>
@@ -6672,7 +6664,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>150</v>
@@ -6692,7 +6684,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>40422</v>
       </c>
@@ -6718,7 +6710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>153</v>
@@ -6740,7 +6732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>154</v>
@@ -6762,7 +6754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>150</v>
@@ -6782,7 +6774,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>40452</v>
       </c>
@@ -6808,7 +6800,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>105</v>
@@ -6834,7 +6826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>160</v>
@@ -6854,7 +6846,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>40483</v>
       </c>
@@ -6880,7 +6872,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>51</v>
@@ -6904,7 +6896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>161</v>
@@ -6926,7 +6918,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>40513</v>
       </c>
@@ -6952,7 +6944,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>164</v>
@@ -6972,7 +6964,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="47" t="s">
         <v>48</v>
       </c>
@@ -6994,7 +6986,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>40544</v>
       </c>
@@ -7018,7 +7010,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>40575</v>
       </c>
@@ -7042,7 +7034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>55</v>
@@ -7062,7 +7054,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>168</v>
@@ -7082,7 +7074,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>40603</v>
       </c>
@@ -7106,7 +7098,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>171</v>
@@ -7128,7 +7120,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>40634</v>
       </c>
@@ -7152,7 +7144,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>40664</v>
       </c>
@@ -7180,7 +7172,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>40695</v>
       </c>
@@ -7206,7 +7198,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>176</v>
@@ -7226,7 +7218,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>40725</v>
       </c>
@@ -7250,7 +7242,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40756</v>
       </c>
@@ -7276,7 +7268,7 @@
         <v>40398</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>179</v>
@@ -7296,7 +7288,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>40787</v>
       </c>
@@ -7322,7 +7314,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>180</v>
@@ -7342,7 +7334,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>40817</v>
       </c>
@@ -7368,7 +7360,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>182</v>
@@ -7388,7 +7380,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40848</v>
       </c>
@@ -7414,7 +7406,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>163</v>
@@ -7436,7 +7428,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>183</v>
@@ -7458,7 +7450,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>40878</v>
       </c>
@@ -7484,7 +7476,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>186</v>
@@ -7504,7 +7496,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="47" t="s">
         <v>49</v>
       </c>
@@ -7526,7 +7518,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40909</v>
       </c>
@@ -7556,7 +7548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>190</v>
@@ -7578,7 +7570,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="50"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>40940</v>
       </c>
@@ -7604,7 +7596,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>191</v>
@@ -7624,7 +7616,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>40969</v>
       </c>
@@ -7648,7 +7640,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>41000</v>
       </c>
@@ -7674,7 +7666,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>194</v>
@@ -7694,7 +7686,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>41030</v>
       </c>
@@ -7722,7 +7714,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>54</v>
@@ -7744,7 +7736,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>197</v>
@@ -7764,7 +7756,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>41061</v>
       </c>
@@ -7790,7 +7782,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>199</v>
@@ -7812,7 +7804,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41091</v>
       </c>
@@ -7835,10 +7827,10 @@
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>200</v>
@@ -7858,7 +7850,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>41122</v>
       </c>
@@ -7882,7 +7874,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>41153</v>
       </c>
@@ -7908,7 +7900,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -7928,7 +7920,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>41183</v>
       </c>
@@ -7958,7 +7950,7 @@
       </c>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>203</v>
@@ -7978,7 +7970,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>41214</v>
       </c>
@@ -8004,7 +7996,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>41244</v>
       </c>
@@ -8030,7 +8022,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>71</v>
@@ -8052,7 +8044,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>204</v>
@@ -8074,7 +8066,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="47" t="s">
         <v>50</v>
       </c>
@@ -8092,7 +8084,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>41275</v>
       </c>
@@ -8116,7 +8108,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>207</v>
@@ -8136,7 +8128,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>41306</v>
       </c>
@@ -8156,7 +8148,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>41334</v>
       </c>
@@ -8176,7 +8168,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>41365</v>
       </c>
@@ -8200,7 +8192,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>208</v>
@@ -8220,7 +8212,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>41395</v>
       </c>
@@ -8246,7 +8238,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8266,7 +8258,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>55</v>
@@ -8286,7 +8278,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>209</v>
@@ -8306,7 +8298,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>41426</v>
       </c>
@@ -8330,7 +8322,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>41456</v>
       </c>
@@ -8350,7 +8342,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>41487</v>
       </c>
@@ -8376,7 +8368,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>89</v>
@@ -8396,7 +8388,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>41518</v>
       </c>
@@ -8420,7 +8412,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>41548</v>
       </c>
@@ -8446,7 +8438,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>212</v>
@@ -8466,7 +8458,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>41579</v>
       </c>
@@ -8492,7 +8484,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>213</v>
@@ -8512,7 +8504,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>41609</v>
       </c>
@@ -8536,7 +8528,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>52</v>
@@ -8558,7 +8550,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="47" t="s">
         <v>187</v>
       </c>
@@ -8580,7 +8572,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>41640</v>
       </c>
@@ -8604,7 +8596,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41671</v>
       </c>
@@ -8628,7 +8620,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>41699</v>
       </c>
@@ -8652,7 +8644,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>41730</v>
       </c>
@@ -8678,7 +8670,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>223</v>
@@ -8698,7 +8690,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>41760</v>
       </c>
@@ -8722,7 +8714,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41791</v>
       </c>
@@ -8746,7 +8738,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41821</v>
       </c>
@@ -8770,7 +8762,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>41852</v>
       </c>
@@ -8794,7 +8786,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>41883</v>
       </c>
@@ -8818,7 +8810,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>41913</v>
       </c>
@@ -8844,7 +8836,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>229</v>
@@ -8864,7 +8856,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41944</v>
       </c>
@@ -8888,7 +8880,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>41974</v>
       </c>
@@ -8908,7 +8900,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>230</v>
@@ -8928,7 +8920,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="47" t="s">
         <v>188</v>
       </c>
@@ -8950,7 +8942,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>42005</v>
       </c>
@@ -8974,7 +8966,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>237</v>
@@ -8994,7 +8986,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>42036</v>
       </c>
@@ -9018,7 +9010,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>42064</v>
       </c>
@@ -9038,7 +9030,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42095</v>
       </c>
@@ -9058,7 +9050,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>42125</v>
       </c>
@@ -9082,7 +9074,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>42156</v>
       </c>
@@ -9102,7 +9094,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>42186</v>
       </c>
@@ -9122,7 +9114,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>42217</v>
       </c>
@@ -9146,7 +9138,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>241</v>
@@ -9166,7 +9158,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>42248</v>
       </c>
@@ -9190,7 +9182,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>42278</v>
       </c>
@@ -9214,7 +9206,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>42309</v>
       </c>
@@ -9238,7 +9230,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>42339</v>
       </c>
@@ -9266,7 +9258,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>245</v>
@@ -9286,7 +9278,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="47" t="s">
         <v>236</v>
       </c>
@@ -9308,7 +9300,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>42370</v>
       </c>
@@ -9332,7 +9324,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>54</v>
@@ -9354,7 +9346,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>54</v>
@@ -9376,7 +9368,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>249</v>
@@ -9396,7 +9388,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>42401</v>
       </c>
@@ -9420,7 +9412,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>42430</v>
       </c>
@@ -9444,7 +9436,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>42461</v>
       </c>
@@ -9470,7 +9462,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>55</v>
@@ -9490,7 +9482,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>54</v>
@@ -9512,7 +9504,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>254</v>
@@ -9532,7 +9524,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>42491</v>
       </c>
@@ -9555,10 +9547,10 @@
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>167</v>
@@ -9578,19 +9570,15 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>42522</v>
       </c>
-      <c r="B256" s="20" t="s">
-        <v>255</v>
-      </c>
+      <c r="B256" s="20"/>
       <c r="C256" s="13">
         <v>1.25</v>
       </c>
-      <c r="D256" s="39">
-        <v>4</v>
-      </c>
+      <c r="D256" s="39"/>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
       <c r="G256" s="13">
@@ -9602,7 +9590,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>42552</v>
       </c>
@@ -9622,19 +9610,15 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>42583</v>
       </c>
-      <c r="B258" s="20" t="s">
-        <v>256</v>
-      </c>
+      <c r="B258" s="20"/>
       <c r="C258" s="13">
         <v>1.25</v>
       </c>
-      <c r="D258" s="39">
-        <v>5</v>
-      </c>
+      <c r="D258" s="39"/>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
       <c r="G258" s="13">
@@ -9646,7 +9630,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>42614</v>
       </c>
@@ -9669,13 +9653,13 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="39">
@@ -9692,7 +9676,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42644</v>
       </c>
@@ -9715,13 +9699,13 @@
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39">
@@ -9738,12 +9722,12 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>42675</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -9762,7 +9746,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>42705</v>
       </c>
@@ -9786,10 +9770,10 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39">
@@ -9806,7 +9790,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="47" t="s">
         <v>235</v>
       </c>
@@ -9828,12 +9812,12 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42736</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -9849,10 +9833,10 @@
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>42767</v>
       </c>
@@ -9872,7 +9856,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>42795</v>
       </c>
@@ -9892,7 +9876,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>42826</v>
       </c>
@@ -9912,7 +9896,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>42856</v>
       </c>
@@ -9935,10 +9919,10 @@
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>42887</v>
       </c>
@@ -9961,13 +9945,13 @@
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -9984,7 +9968,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>42917</v>
       </c>
@@ -10008,12 +9992,12 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>42948</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C275" s="13">
         <v>1.25</v>
@@ -10031,13 +10015,13 @@
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39">
@@ -10054,7 +10038,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42979</v>
       </c>
@@ -10077,13 +10061,13 @@
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="39">
@@ -10100,7 +10084,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>43009</v>
       </c>
@@ -10123,10 +10107,10 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>92</v>
@@ -10145,10 +10129,10 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>52</v>
@@ -10167,34 +10151,36 @@
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="40"/>
-      <c r="B282" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C282" s="13"/>
-      <c r="D282" s="39">
-        <v>5.202</v>
-      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="40">
+        <v>43040</v>
+      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D282" s="39"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <v>43040</v>
-      </c>
-      <c r="B283" s="20"/>
+        <v>43070</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C283" s="13">
         <v>1.25</v>
       </c>
@@ -10205,114 +10191,116 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H283" s="39"/>
+      <c r="H283" s="39">
+        <v>2</v>
+      </c>
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
-      <c r="K283" s="20"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="40">
-        <v>43070</v>
-      </c>
-      <c r="B284" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C284" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K283" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B284" s="20"/>
+      <c r="C284" s="13"/>
       <c r="D284" s="39"/>
-      <c r="E284" s="9"/>
+      <c r="E284" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F284" s="20"/>
-      <c r="G284" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H284" s="39">
-        <v>2</v>
-      </c>
-      <c r="I284" s="9"/>
+      <c r="G284" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J284" s="11"/>
-      <c r="K284" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="B285" s="20"/>
-      <c r="C285" s="13"/>
+      <c r="K284" s="20"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C285" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D285" s="39"/>
-      <c r="E285" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E285" s="9"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H285" s="39"/>
-      <c r="I285" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G285" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H285" s="39">
+        <v>3</v>
+      </c>
+      <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="20"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="40">
-        <v>43101</v>
-      </c>
+      <c r="K285" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C286" s="13">
-        <v>1.25</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C286" s="13"/>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G286" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H286" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="40"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="40">
+        <v>43132</v>
+      </c>
       <c r="B287" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C287" s="13"/>
+        <v>276</v>
+      </c>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H287" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
-        <v>43132</v>
-      </c>
-      <c r="B288" s="20" t="s">
-        <v>279</v>
-      </c>
+        <v>43160</v>
+      </c>
+      <c r="B288" s="20"/>
       <c r="C288" s="13">
         <v>1.25</v>
       </c>
@@ -10323,18 +10311,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H288" s="39">
-        <v>7</v>
-      </c>
+      <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="20"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -10352,11 +10336,13 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
-        <v>43191</v>
-      </c>
-      <c r="B290" s="20"/>
+        <v>43221</v>
+      </c>
+      <c r="B290" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C290" s="13">
         <v>1.25</v>
       </c>
@@ -10370,57 +10356,55 @@
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="20"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="40">
-        <v>43221</v>
-      </c>
+      <c r="K290" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C291" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D291" s="39"/>
+        <v>280</v>
+      </c>
+      <c r="C291" s="13"/>
+      <c r="D291" s="39">
+        <v>0.89</v>
+      </c>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G291" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="40"/>
-      <c r="B292" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C292" s="13"/>
-      <c r="D292" s="39">
-        <v>0.89</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="40">
+        <v>43252</v>
+      </c>
+      <c r="B292" s="20"/>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D292" s="39"/>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
-      <c r="K292" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="20"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -10438,11 +10422,13 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
-        <v>43282</v>
-      </c>
-      <c r="B294" s="20"/>
+        <v>43313</v>
+      </c>
+      <c r="B294" s="20" t="s">
+        <v>283</v>
+      </c>
       <c r="C294" s="13">
         <v>1.25</v>
       </c>
@@ -10453,113 +10439,117 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H294" s="39"/>
+      <c r="H294" s="39">
+        <v>14</v>
+      </c>
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
-      <c r="K294" s="20"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="40">
-        <v>43313</v>
-      </c>
-      <c r="B295" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C295" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K294" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="40"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13"/>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H295" s="39">
-        <v>14</v>
-      </c>
+      <c r="G295" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H295" s="39"/>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="40"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="40">
+        <v>43344</v>
+      </c>
+      <c r="B296" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H296" s="39"/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H296" s="39">
+        <v>5</v>
+      </c>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="40">
-        <v>43344</v>
-      </c>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C297" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D297" s="39"/>
+        <v>286</v>
+      </c>
+      <c r="C297" s="13"/>
+      <c r="D297" s="39">
+        <v>1</v>
+      </c>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H297" s="39">
-        <v>5</v>
-      </c>
+      <c r="G297" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="40"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="40">
+        <v>43374</v>
+      </c>
       <c r="B298" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C298" s="13"/>
+        <v>288</v>
+      </c>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39">
-        <v>1</v>
+        <v>0.183</v>
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
-      <c r="K298" s="20"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K298" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
       </c>
       <c r="D299" s="39">
-        <v>0.183</v>
+        <v>2.5</v>
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
@@ -10571,21 +10561,21 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
       </c>
       <c r="D300" s="39">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
@@ -10596,43 +10586,35 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="40">
-        <v>43435</v>
-      </c>
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C301" s="13">
-        <v>1.25</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C301" s="13"/>
       <c r="D301" s="39">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G301" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="40"/>
-      <c r="B302" s="20" t="s">
-        <v>210</v>
-      </c>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B302" s="20"/>
       <c r="C302" s="13"/>
-      <c r="D302" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
       <c r="G302" s="13" t="str">
@@ -10644,30 +10626,36 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B303" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="20"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K303" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -10679,20 +10667,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H304" s="39"/>
+      <c r="H304" s="39">
+        <v>2</v>
+      </c>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
-        <v>43497</v>
-      </c>
-      <c r="B305" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>43525</v>
+      </c>
+      <c r="B305" s="20"/>
       <c r="C305" s="13">
         <v>1.25</v>
       </c>
@@ -10703,20 +10691,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H305" s="39">
-        <v>2</v>
-      </c>
+      <c r="H305" s="39"/>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
-      <c r="K305" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
-        <v>43525</v>
-      </c>
-      <c r="B306" s="20"/>
+        <v>43556</v>
+      </c>
+      <c r="B306" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C306" s="13">
         <v>1.25</v>
       </c>
@@ -10727,116 +10713,118 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H306" s="39"/>
+      <c r="H306" s="39">
+        <v>3</v>
+      </c>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="20"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="40">
-        <v>43556</v>
-      </c>
+      <c r="K306" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C307" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D307" s="39"/>
+        <v>124</v>
+      </c>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39">
+        <v>2</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H307" s="39">
-        <v>3</v>
-      </c>
+      <c r="G307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="40"/>
+      <c r="K307" s="48">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="40">
+        <v>43586</v>
+      </c>
       <c r="B308" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C308" s="13"/>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D308" s="39">
         <v>2</v>
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="48">
-        <v>45045</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="40">
-        <v>43586</v>
-      </c>
+      <c r="K308" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C309" s="13">
-        <v>1.25</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C309" s="13"/>
       <c r="D309" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="50" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="40"/>
-      <c r="B310" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C310" s="13"/>
-      <c r="D310" s="39">
-        <v>4</v>
-      </c>
+      <c r="K309" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G310" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K310" s="20"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
-        <v>43617</v>
-      </c>
-      <c r="B311" s="20"/>
+        <v>43647</v>
+      </c>
+      <c r="B311" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="C311" s="13">
         <v>1.25</v>
       </c>
-      <c r="D311" s="39"/>
+      <c r="D311" s="39">
+        <v>1</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
       <c r="G311" s="13">
@@ -10846,21 +10834,19 @@
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="20"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K311" s="48">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
-        <v>43647</v>
-      </c>
-      <c r="B312" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>43678</v>
+      </c>
+      <c r="B312" s="20"/>
       <c r="C312" s="13">
         <v>1.25</v>
       </c>
-      <c r="D312" s="39">
-        <v>1</v>
-      </c>
+      <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
       <c r="G312" s="13">
@@ -10870,13 +10856,11 @@
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="48">
-        <v>45112</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K312" s="20"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13">
@@ -10892,11 +10876,13 @@
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="20"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K313" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10912,13 +10898,11 @@
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K314" s="20"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13">
@@ -10936,15 +10920,19 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
-        <v>43770</v>
-      </c>
-      <c r="B316" s="20"/>
+        <v>43800</v>
+      </c>
+      <c r="B316" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="C316" s="13">
         <v>1.25</v>
       </c>
-      <c r="D316" s="39"/>
+      <c r="D316" s="39">
+        <v>5</v>
+      </c>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
       <c r="G316" s="13">
@@ -10954,85 +10942,83 @@
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="20"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40">
-        <v>43800</v>
-      </c>
+      <c r="K316" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C317" s="13">
-        <v>1.25</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C317" s="13"/>
       <c r="D317" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G317" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40"/>
-      <c r="B318" s="20" t="s">
-        <v>108</v>
-      </c>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B318" s="20"/>
       <c r="C318" s="13"/>
-      <c r="D318" s="39">
-        <v>3</v>
-      </c>
-      <c r="E318" s="9"/>
+      <c r="D318" s="39"/>
+      <c r="E318" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F318" s="20"/>
       <c r="G318" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H318" s="39"/>
-      <c r="I318" s="9"/>
+      <c r="I318" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J318" s="11"/>
-      <c r="K318" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
+      <c r="K318" s="20"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B319" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
-      <c r="E319" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39"/>
-      <c r="I319" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="20"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K319" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B320" s="20" t="s">
-        <v>305</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B320" s="20"/>
       <c r="C320" s="13">
         <v>1.25</v>
       </c>
@@ -11046,13 +11032,11 @@
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K320" s="20"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -11070,9 +11054,9 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13">
@@ -11090,9 +11074,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13">
@@ -11110,11 +11094,13 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
-        <v>43952</v>
-      </c>
-      <c r="B324" s="20"/>
+        <v>43983</v>
+      </c>
+      <c r="B324" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C324" s="13">
         <v>1.25</v>
       </c>
@@ -11128,36 +11114,36 @@
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
-      <c r="K324" s="20"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="40">
-        <v>43983</v>
-      </c>
+      <c r="K324" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="C325" s="13">
-        <v>1.25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C325" s="13"/>
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H325" s="39"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H325" s="39">
+        <v>1</v>
+      </c>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K325" s="48">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -11168,39 +11154,37 @@
         <v/>
       </c>
       <c r="H326" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="48">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="40"/>
-      <c r="B327" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C327" s="13"/>
+      <c r="K326" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D327" s="39"/>
       <c r="E327" s="9"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H327" s="39">
-        <v>3</v>
-      </c>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
-      <c r="K327" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -11218,11 +11202,13 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B329" s="20"/>
+        <v>44075</v>
+      </c>
+      <c r="B329" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C329" s="13">
         <v>1.25</v>
       </c>
@@ -11233,40 +11219,35 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H329" s="39"/>
+      <c r="H329" s="39">
+        <v>1</v>
+      </c>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="20"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K329" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B330" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="B330" s="20"/>
       <c r="C330" s="13">
         <v>1.25</v>
       </c>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H330" s="39">
-        <v>1</v>
-      </c>
+      <c r="G330" s="13"/>
+      <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -11281,15 +11262,19 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B332" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B332" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="C332" s="13">
         <v>1.25</v>
       </c>
-      <c r="D332" s="39"/>
+      <c r="D332" s="39">
+        <v>5</v>
+      </c>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
       <c r="G332" s="13"/>
@@ -11298,48 +11283,47 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B333" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C333" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D333" s="39">
-        <v>5</v>
-      </c>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="39"/>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="47" t="s">
-        <v>310</v>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40">
+        <v>44197</v>
       </c>
       <c r="B334" s="20"/>
-      <c r="C334" s="13"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D334" s="39"/>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13">
@@ -11357,9 +11341,9 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11377,9 +11361,9 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -11397,9 +11381,9 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11417,9 +11401,9 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13">
@@ -11437,9 +11421,9 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11457,9 +11441,9 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13">
@@ -11477,9 +11461,9 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13">
@@ -11497,9 +11481,9 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -11517,9 +11501,9 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13">
@@ -11537,15 +11521,19 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B345" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B345" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="C345" s="13">
         <v>1.25</v>
       </c>
-      <c r="D345" s="39"/>
+      <c r="D345" s="39">
+        <v>5</v>
+      </c>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
       <c r="G345" s="13">
@@ -11557,51 +11545,47 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B346" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C346" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D346" s="39">
-        <v>5</v>
-      </c>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G346" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="47" t="s">
-        <v>311</v>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="40">
+        <v>44562</v>
       </c>
       <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D347" s="39"/>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11619,9 +11603,9 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -11639,9 +11623,9 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13">
@@ -11659,9 +11643,9 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -11679,9 +11663,9 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13">
@@ -11699,9 +11683,9 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11719,9 +11703,9 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -11739,9 +11723,9 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13">
@@ -11759,9 +11743,9 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -11779,9 +11763,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -11799,15 +11783,19 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B358" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B358" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="C358" s="13">
         <v>1.25</v>
       </c>
-      <c r="D358" s="39"/>
+      <c r="D358" s="39">
+        <v>5</v>
+      </c>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
       <c r="G358" s="13">
@@ -11819,55 +11807,53 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B359" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C359" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D359" s="39">
-        <v>5</v>
-      </c>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K360" s="50">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B361" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B361" s="20"/>
       <c r="C361" s="13">
         <v>1.25</v>
       </c>
@@ -11881,13 +11867,11 @@
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="50">
-        <v>44929</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13">
@@ -11905,9 +11889,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13">
@@ -11925,11 +11909,13 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B364" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C364" s="13">
         <v>1.25</v>
       </c>
@@ -11940,18 +11926,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H364" s="39"/>
+      <c r="H364" s="39">
+        <v>1</v>
+      </c>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
-      <c r="K364" s="20"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K364" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B365" s="20" t="s">
-        <v>66</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B365" s="20"/>
       <c r="C365" s="13">
         <v>1.25</v>
       </c>
@@ -11962,58 +11950,54 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H365" s="39">
-        <v>1</v>
-      </c>
+      <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="50">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B366" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B366" s="15"/>
       <c r="C366" s="13">
         <v>1.25</v>
       </c>
-      <c r="D366" s="39"/>
+      <c r="D366" s="42"/>
       <c r="E366" s="9"/>
-      <c r="F366" s="20"/>
-      <c r="G366" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H366" s="39"/>
+      <c r="F366" s="15"/>
+      <c r="G366" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H366" s="42"/>
       <c r="I366" s="9"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J366" s="12"/>
+      <c r="K366" s="15"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B367" s="15"/>
+        <v>45139</v>
+      </c>
+      <c r="B367" s="20"/>
       <c r="C367" s="13">
         <v>1.25</v>
       </c>
-      <c r="D367" s="42"/>
+      <c r="D367" s="39"/>
       <c r="E367" s="9"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H367" s="42"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H367" s="39"/>
       <c r="I367" s="9"/>
-      <c r="J367" s="12"/>
-      <c r="K367" s="15"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13">
@@ -12031,11 +12015,13 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B369" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C369" s="13">
         <v>1.25</v>
       </c>
@@ -12046,68 +12032,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H369" s="39"/>
+      <c r="H369" s="39">
+        <v>7</v>
+      </c>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="40">
-        <v>45200</v>
-      </c>
+      <c r="K369" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C370" s="13">
-        <v>1.25</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C370" s="13"/>
       <c r="D370" s="39"/>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H370" s="39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="40"/>
-      <c r="B371" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C371" s="13"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D371" s="39"/>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H371" s="39">
-        <v>4</v>
-      </c>
+      <c r="G371" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H371" s="39"/>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B372" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="C372" s="13">
         <v>1.25</v>
       </c>
-      <c r="D372" s="39"/>
+      <c r="D372" s="39">
+        <v>5</v>
+      </c>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
       <c r="G372" s="13">
@@ -12119,35 +12107,31 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B373" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C373" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D373" s="39">
-        <v>5</v>
-      </c>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="39"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="B374" s="20"/>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
       <c r="E374" s="9"/>
@@ -12159,14 +12143,14 @@
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="40">
-        <v>45292</v>
-      </c>
+      <c r="K374" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39"/>
@@ -12176,18 +12160,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H375" s="39"/>
+      <c r="H375" s="39">
+        <v>1</v>
+      </c>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40"/>
-      <c r="B376" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="K375" s="50">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B376" s="20"/>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
@@ -12196,18 +12182,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H376" s="39">
-        <v>1</v>
-      </c>
+      <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
-      <c r="K376" s="50">
-        <v>45296</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -12223,9 +12205,9 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -12241,9 +12223,9 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -12259,9 +12241,9 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -12277,9 +12259,9 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -12295,9 +12277,9 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -12313,9 +12295,9 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -12331,9 +12313,9 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -12349,9 +12331,9 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -12367,9 +12349,9 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -12385,9 +12367,9 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -12403,9 +12385,9 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12421,9 +12403,9 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12439,9 +12421,9 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12457,9 +12439,9 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12475,9 +12457,9 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12493,9 +12475,9 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12511,9 +12493,9 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12529,9 +12511,9 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12547,9 +12529,9 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12565,9 +12547,9 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -12583,9 +12565,9 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -12601,9 +12583,9 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -12619,9 +12601,9 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -12637,9 +12619,9 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -12655,9 +12637,9 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -12673,9 +12655,9 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -12691,9 +12673,9 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
-        <v>46143</v>
+        <v>46174</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12709,9 +12691,9 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
-        <v>46174</v>
+        <v>46204</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12727,9 +12709,9 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -12745,9 +12727,9 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
-        <v>46235</v>
+        <v>46266</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -12763,9 +12745,9 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -12781,9 +12763,9 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12799,9 +12781,9 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
-        <v>46327</v>
+        <v>46357</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -12817,9 +12799,9 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
-        <v>46357</v>
+        <v>46388</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -12835,9 +12817,9 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
-        <v>46388</v>
+        <v>46419</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12853,9 +12835,9 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <v>46419</v>
+        <v>46447</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -12871,9 +12853,9 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
-        <v>46447</v>
+        <v>46478</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -12889,9 +12871,9 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
-        <v>46478</v>
+        <v>46508</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12907,9 +12889,9 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
-        <v>46508</v>
+        <v>46539</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12925,9 +12907,9 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
-        <v>46539</v>
+        <v>46569</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12943,9 +12925,9 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
-        <v>46569</v>
+        <v>46600</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12961,9 +12943,9 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
-        <v>46600</v>
+        <v>46631</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12979,9 +12961,9 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
-        <v>46631</v>
+        <v>46661</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12997,9 +12979,9 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <v>46661</v>
+        <v>46692</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -13015,9 +12997,9 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
-        <v>46692</v>
+        <v>46722</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -13033,9 +13015,9 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
-        <v>46722</v>
+        <v>46753</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -13051,9 +13033,9 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <v>46753</v>
+        <v>46784</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -13069,9 +13051,9 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
-        <v>46784</v>
+        <v>46813</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -13087,9 +13069,9 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
-        <v>46813</v>
+        <v>46844</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -13105,9 +13087,9 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
-        <v>46844</v>
+        <v>46874</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -13123,9 +13105,9 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
-        <v>46874</v>
+        <v>46905</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -13141,9 +13123,9 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
-        <v>46905</v>
+        <v>46935</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -13159,9 +13141,9 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
-        <v>46935</v>
+        <v>46966</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -13177,9 +13159,9 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
-        <v>46966</v>
+        <v>46997</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -13195,9 +13177,9 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
-        <v>46997</v>
+        <v>47027</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -13213,9 +13195,9 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
-        <v>47027</v>
+        <v>47058</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -13231,9 +13213,9 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
-        <v>47058</v>
+        <v>47088</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -13249,9 +13231,9 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
-        <v>47088</v>
+        <v>47119</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -13267,9 +13249,9 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
-        <v>47119</v>
+        <v>47150</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -13285,9 +13267,9 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
-        <v>47150</v>
+        <v>47178</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -13303,9 +13285,9 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
-        <v>47178</v>
+        <v>47209</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13321,9 +13303,9 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
-        <v>47209</v>
+        <v>47239</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13339,9 +13321,9 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
-        <v>47239</v>
+        <v>47270</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13357,9 +13339,9 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
-        <v>47270</v>
+        <v>47300</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13375,9 +13357,9 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
-        <v>47300</v>
+        <v>47331</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13393,9 +13375,9 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
-        <v>47331</v>
+        <v>47362</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13411,9 +13393,9 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
-        <v>47362</v>
+        <v>47392</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13429,9 +13411,9 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
-        <v>47392</v>
+        <v>47423</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13447,9 +13429,9 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
-        <v>47423</v>
+        <v>47453</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13465,9 +13447,9 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
-        <v>47453</v>
+        <v>47484</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13483,9 +13465,9 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
-        <v>47484</v>
+        <v>47515</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13501,9 +13483,9 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
-        <v>47515</v>
+        <v>47543</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13519,9 +13501,9 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
-        <v>47543</v>
+        <v>47574</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13537,9 +13519,9 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
-        <v>47574</v>
+        <v>47604</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13555,9 +13537,9 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
-        <v>47604</v>
+        <v>47635</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13573,9 +13555,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
-        <v>47635</v>
+        <v>47665</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13591,9 +13573,9 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
-        <v>47665</v>
+        <v>47696</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13609,9 +13591,9 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
-        <v>47696</v>
+        <v>47727</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13627,9 +13609,9 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
-        <v>47727</v>
+        <v>47757</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13645,9 +13627,9 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
-        <v>47757</v>
+        <v>47788</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13663,9 +13645,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
-        <v>47788</v>
+        <v>47818</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13681,9 +13663,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
-        <v>47818</v>
+        <v>47849</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13699,9 +13681,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
-        <v>47849</v>
+        <v>47880</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13717,9 +13699,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
-        <v>47880</v>
+        <v>47908</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13735,9 +13717,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
-        <v>47908</v>
+        <v>47939</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -13753,9 +13735,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
-        <v>47939</v>
+        <v>47969</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -13771,9 +13753,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
-        <v>47969</v>
+        <v>48000</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -13789,9 +13771,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
-        <v>48000</v>
+        <v>48030</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -13807,9 +13789,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
-        <v>48030</v>
+        <v>48061</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -13825,9 +13807,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
-        <v>48061</v>
+        <v>48092</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -13843,9 +13825,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
-        <v>48092</v>
+        <v>48122</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13861,9 +13843,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
-        <v>48122</v>
+        <v>48153</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -13879,9 +13861,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
-        <v>48153</v>
+        <v>48183</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -13897,9 +13879,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
-        <v>48183</v>
+        <v>48214</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -13915,9 +13897,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
-        <v>48214</v>
+        <v>48245</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -13933,9 +13915,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
-        <v>48245</v>
+        <v>48274</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -13951,9 +13933,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
-        <v>48274</v>
+        <v>48305</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13969,9 +13951,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
-        <v>48305</v>
+        <v>48335</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13987,9 +13969,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
-        <v>48335</v>
+        <v>48366</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -14005,9 +13987,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
-        <v>48366</v>
+        <v>48396</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14023,9 +14005,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
-        <v>48396</v>
+        <v>48427</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14041,9 +14023,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <v>48427</v>
+        <v>48458</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14059,9 +14041,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
-        <v>48458</v>
+        <v>48488</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14077,9 +14059,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
-        <v>48488</v>
+        <v>48519</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14095,9 +14077,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
-        <v>48519</v>
+        <v>48549</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14113,9 +14095,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
-        <v>48549</v>
+        <v>48580</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14131,9 +14113,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
-        <v>48580</v>
+        <v>48611</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14149,9 +14131,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <v>48611</v>
+        <v>48639</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14167,9 +14149,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
-        <v>48639</v>
+        <v>48670</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14185,9 +14167,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
-        <v>48670</v>
+        <v>48700</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14203,9 +14185,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
-        <v>48700</v>
+        <v>48731</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14221,9 +14203,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
-        <v>48731</v>
+        <v>48761</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14239,9 +14221,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
-        <v>48761</v>
+        <v>48792</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14257,9 +14239,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
-        <v>48792</v>
+        <v>48823</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14275,9 +14257,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
-        <v>48823</v>
+        <v>48853</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14293,9 +14275,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
-        <v>48853</v>
+        <v>48884</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14311,9 +14293,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <v>48884</v>
+        <v>48914</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14329,9 +14311,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <v>48914</v>
+        <v>48945</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14347,9 +14329,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <v>48945</v>
+        <v>48976</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14365,9 +14347,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <v>48976</v>
+        <v>49004</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14383,9 +14365,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <v>49004</v>
+        <v>49035</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14401,9 +14383,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <v>49035</v>
+        <v>49065</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14419,9 +14401,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
-        <v>49065</v>
+        <v>49096</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14437,9 +14419,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>49096</v>
+        <v>49126</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14455,9 +14437,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>49126</v>
+        <v>49157</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14473,9 +14455,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>49157</v>
+        <v>49188</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14491,9 +14473,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <v>49188</v>
+        <v>49218</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14509,9 +14491,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <v>49218</v>
+        <v>49249</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14527,9 +14509,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>49249</v>
+        <v>49279</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14545,9 +14527,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>49279</v>
+        <v>49310</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14563,9 +14545,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>49310</v>
+        <v>49341</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14581,9 +14563,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>49341</v>
+        <v>49369</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14599,9 +14581,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>49369</v>
+        <v>49400</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14617,9 +14599,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>49400</v>
+        <v>49430</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14635,9 +14617,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>49430</v>
+        <v>49461</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14653,9 +14635,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>49461</v>
+        <v>49491</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14670,24 +14652,6 @@
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
-    </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="40">
-        <v>49491</v>
-      </c>
-      <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
-      <c r="D514" s="39"/>
-      <c r="E514" s="9"/>
-      <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H514" s="39"/>
-      <c r="I514" s="9"/>
-      <c r="J514" s="11"/>
-      <c r="K514" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14704,10 +14668,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14730,7 +14694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14738,21 +14702,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -14765,7 +14729,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14794,7 +14758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.95799999999999996</v>
       </c>
@@ -14822,20 +14786,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>0.42099999999999999</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14859,7 +14823,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14886,7 +14850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14912,7 +14876,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14938,7 +14902,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14964,7 +14928,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14990,7 +14954,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15016,7 +14980,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15042,7 +15006,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15068,7 +15032,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15088,7 +15052,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15108,7 +15072,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15128,7 +15092,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15149,7 +15113,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15170,7 +15134,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15191,7 +15155,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15212,7 +15176,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15233,7 +15197,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15254,7 +15218,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15275,7 +15239,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15296,7 +15260,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15317,7 +15281,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15338,7 +15302,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15359,7 +15323,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15380,7 +15344,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15401,7 +15365,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15422,7 +15386,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15443,7 +15407,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15464,7 +15428,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15485,7 +15449,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15506,7 +15470,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15527,7 +15491,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15548,7 +15512,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15557,7 +15521,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15566,7 +15530,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15575,7 +15539,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15584,7 +15548,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15593,7 +15557,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15602,7 +15566,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15611,7 +15575,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15620,7 +15584,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15629,7 +15593,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15638,7 +15602,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15647,7 +15611,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15656,7 +15620,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15665,7 +15629,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15674,7 +15638,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15683,7 +15647,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15692,7 +15656,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15701,7 +15665,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15710,7 +15674,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15719,7 +15683,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15728,7 +15692,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15737,7 +15701,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15746,7 +15710,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15755,7 +15719,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15764,7 +15728,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15773,7 +15737,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15782,7 +15746,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15791,7 +15755,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15800,7 +15764,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15809,7 +15773,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86205E-321B-4059-A975-0551A2B4CAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -994,7 +993,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1857,7 +1856,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1899,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1963,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2023,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2089,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2152,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2250,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2309,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2374,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2417,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2492,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2678,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2744,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2802,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2868,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2924,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +2999,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3042,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3108,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3164,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3262,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3325,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3374,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3392,26 +3391,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K513" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K513" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K513"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3423,13 +3422,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3438,14 +3437,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3749,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3759,7 +3758,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3767,34 +3766,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A247" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A367" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
+      <selection pane="bottomLeft" activeCell="D375" sqref="D375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3815,7 +3814,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3835,7 +3834,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3865,7 +3864,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3878,7 +3877,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3895,7 +3894,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3939,7 +3938,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.5579999999999092</v>
+        <v>3.8079999999999092</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3949,12 +3948,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.800000000000011</v>
+        <v>39.050000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3976,7 +3975,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>38718</v>
       </c>
@@ -4002,7 +4001,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -4024,7 +4023,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>53</v>
@@ -4044,7 +4043,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>38749</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -4090,7 +4089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>56</v>
@@ -4110,7 +4109,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>38777</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>61</v>
@@ -4158,7 +4157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>62</v>
@@ -4180,7 +4179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>38808</v>
       </c>
@@ -4204,7 +4203,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>38838</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>67</v>
@@ -4250,7 +4249,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>38869</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>66</v>
@@ -4298,7 +4297,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>68</v>
@@ -4318,7 +4317,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>38899</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>54</v>
@@ -4370,7 +4369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>69</v>
@@ -4390,7 +4389,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38930</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>71</v>
@@ -4440,7 +4439,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>72</v>
@@ -4464,7 +4463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>73</v>
@@ -4486,7 +4485,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>38961</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>71</v>
@@ -4534,7 +4533,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -4556,7 +4555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>75</v>
@@ -4578,7 +4577,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>38991</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>54</v>
@@ -4626,7 +4625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>78</v>
@@ -4646,7 +4645,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>39022</v>
       </c>
@@ -4670,7 +4669,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>39052</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>82</v>
@@ -4714,7 +4713,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>44</v>
       </c>
@@ -4736,7 +4735,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>39083</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>71</v>
@@ -4786,7 +4785,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4806,7 +4805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -4828,7 +4827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>54</v>
@@ -4850,7 +4849,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>66</v>
@@ -4872,7 +4871,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -4894,7 +4893,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
@@ -4912,7 +4911,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>85</v>
@@ -4932,7 +4931,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>39114</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4980,7 +4979,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -5000,7 +4999,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>39142</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>92</v>
@@ -5046,7 +5045,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>93</v>
@@ -5068,7 +5067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>94</v>
@@ -5088,7 +5087,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>39173</v>
       </c>
@@ -5112,7 +5111,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>39203</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -5158,7 +5157,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>39234</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -5208,7 +5207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>104</v>
@@ -5228,7 +5227,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39264</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>106</v>
@@ -5276,7 +5275,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>39295</v>
       </c>
@@ -5300,7 +5299,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>39326</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>108</v>
@@ -5348,7 +5347,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>109</v>
@@ -5368,7 +5367,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>39356</v>
       </c>
@@ -5392,7 +5391,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39387</v>
       </c>
@@ -5416,7 +5415,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>39417</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>114</v>
@@ -5464,7 +5463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>116</v>
@@ -5486,7 +5485,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>45</v>
       </c>
@@ -5508,7 +5507,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>39448</v>
       </c>
@@ -5532,7 +5531,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>39479</v>
       </c>
@@ -5556,7 +5555,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>39508</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>55</v>
@@ -5602,7 +5601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -5622,7 +5621,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>39539</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>39569</v>
       </c>
@@ -5672,7 +5671,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>66</v>
@@ -5694,7 +5693,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -5716,7 +5715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>66</v>
@@ -5738,7 +5737,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>39600</v>
       </c>
@@ -5758,7 +5757,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39630</v>
       </c>
@@ -5782,7 +5781,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>39661</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>126</v>
@@ -5828,7 +5827,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>39692</v>
       </c>
@@ -5852,7 +5851,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39722</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -5898,7 +5897,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39753</v>
       </c>
@@ -5922,7 +5921,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>39783</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
         <v>46</v>
       </c>
@@ -5970,7 +5969,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>39814</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>39818</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>52</v>
@@ -6020,7 +6019,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>132</v>
@@ -6040,7 +6039,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>39845</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>135</v>
@@ -6084,7 +6083,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="48"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39873</v>
       </c>
@@ -6104,7 +6103,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>39904</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>54</v>
@@ -6150,7 +6149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>39934</v>
       </c>
@@ -6170,7 +6169,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39965</v>
       </c>
@@ -6190,7 +6189,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39995</v>
       </c>
@@ -6210,7 +6209,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>40026</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>40057</v>
       </c>
@@ -6256,7 +6255,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>40087</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>40118</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>40148</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>47</v>
       </c>
@@ -6354,7 +6353,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>40179</v>
       </c>
@@ -6374,7 +6373,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>40210</v>
       </c>
@@ -6394,7 +6393,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40238</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>54</v>
@@ -6442,7 +6441,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>40269</v>
       </c>
@@ -6462,7 +6461,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>40299</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>136</v>
@@ -6508,7 +6507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>54</v>
@@ -6530,7 +6529,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40330</v>
       </c>
@@ -6550,7 +6549,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>40360</v>
       </c>
@@ -6574,7 +6573,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40391</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>54</v>
@@ -6620,7 +6619,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>52</v>
@@ -6642,7 +6641,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>66</v>
@@ -6664,7 +6663,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>150</v>
@@ -6684,7 +6683,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>40422</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>153</v>
@@ -6732,7 +6731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>154</v>
@@ -6754,7 +6753,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>150</v>
@@ -6774,7 +6773,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40452</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>105</v>
@@ -6826,7 +6825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>160</v>
@@ -6846,7 +6845,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40483</v>
       </c>
@@ -6872,7 +6871,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>51</v>
@@ -6896,7 +6895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>161</v>
@@ -6918,7 +6917,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>40513</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>164</v>
@@ -6964,7 +6963,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="47" t="s">
         <v>48</v>
       </c>
@@ -6986,7 +6985,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40544</v>
       </c>
@@ -7010,7 +7009,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>40575</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>55</v>
@@ -7054,7 +7053,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>168</v>
@@ -7074,7 +7073,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>40603</v>
       </c>
@@ -7098,7 +7097,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>171</v>
@@ -7120,7 +7119,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40634</v>
       </c>
@@ -7144,7 +7143,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40664</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40695</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>176</v>
@@ -7218,7 +7217,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>40725</v>
       </c>
@@ -7242,7 +7241,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40756</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>40398</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>179</v>
@@ -7288,7 +7287,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40787</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>180</v>
@@ -7334,7 +7333,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40817</v>
       </c>
@@ -7360,7 +7359,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>182</v>
@@ -7380,7 +7379,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40848</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>163</v>
@@ -7428,7 +7427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>183</v>
@@ -7450,7 +7449,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40878</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>186</v>
@@ -7496,7 +7495,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>49</v>
       </c>
@@ -7518,7 +7517,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40909</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>190</v>
@@ -7570,7 +7569,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="50"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40940</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>191</v>
@@ -7616,7 +7615,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40969</v>
       </c>
@@ -7640,7 +7639,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>41000</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>194</v>
@@ -7686,7 +7685,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41030</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>54</v>
@@ -7736,7 +7735,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>197</v>
@@ -7756,7 +7755,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>41061</v>
       </c>
@@ -7782,7 +7781,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>199</v>
@@ -7804,7 +7803,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41091</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>200</v>
@@ -7850,7 +7849,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41122</v>
       </c>
@@ -7874,7 +7873,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41153</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -7920,7 +7919,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41183</v>
       </c>
@@ -7950,7 +7949,7 @@
       </c>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>203</v>
@@ -7970,7 +7969,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>41214</v>
       </c>
@@ -7996,7 +7995,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41244</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>71</v>
@@ -8044,7 +8043,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>204</v>
@@ -8066,7 +8065,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>50</v>
       </c>
@@ -8084,7 +8083,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41275</v>
       </c>
@@ -8108,7 +8107,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>207</v>
@@ -8128,7 +8127,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41306</v>
       </c>
@@ -8148,7 +8147,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>41334</v>
       </c>
@@ -8168,7 +8167,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41365</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>208</v>
@@ -8212,7 +8211,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41395</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8258,7 +8257,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>55</v>
@@ -8278,7 +8277,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>209</v>
@@ -8298,7 +8297,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41426</v>
       </c>
@@ -8322,7 +8321,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41456</v>
       </c>
@@ -8342,7 +8341,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41487</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>89</v>
@@ -8388,7 +8387,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>41518</v>
       </c>
@@ -8412,7 +8411,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>41548</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>212</v>
@@ -8458,7 +8457,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>41579</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>213</v>
@@ -8504,7 +8503,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41609</v>
       </c>
@@ -8528,7 +8527,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>52</v>
@@ -8550,7 +8549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
         <v>187</v>
       </c>
@@ -8572,7 +8571,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41640</v>
       </c>
@@ -8596,7 +8595,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41671</v>
       </c>
@@ -8620,7 +8619,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41699</v>
       </c>
@@ -8644,7 +8643,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41730</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>223</v>
@@ -8690,7 +8689,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41760</v>
       </c>
@@ -8714,7 +8713,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41791</v>
       </c>
@@ -8738,7 +8737,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41821</v>
       </c>
@@ -8762,7 +8761,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41852</v>
       </c>
@@ -8786,7 +8785,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41883</v>
       </c>
@@ -8810,7 +8809,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41913</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>229</v>
@@ -8856,7 +8855,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41944</v>
       </c>
@@ -8880,7 +8879,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41974</v>
       </c>
@@ -8900,7 +8899,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>230</v>
@@ -8920,7 +8919,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="47" t="s">
         <v>188</v>
       </c>
@@ -8942,7 +8941,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42005</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>237</v>
@@ -8986,7 +8985,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42036</v>
       </c>
@@ -9010,7 +9009,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42064</v>
       </c>
@@ -9030,7 +9029,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42095</v>
       </c>
@@ -9050,7 +9049,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42125</v>
       </c>
@@ -9074,7 +9073,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>42156</v>
       </c>
@@ -9094,7 +9093,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>42186</v>
       </c>
@@ -9114,7 +9113,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42217</v>
       </c>
@@ -9138,7 +9137,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>241</v>
@@ -9158,7 +9157,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>42248</v>
       </c>
@@ -9182,7 +9181,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>42278</v>
       </c>
@@ -9206,7 +9205,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>42309</v>
       </c>
@@ -9230,7 +9229,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>42339</v>
       </c>
@@ -9258,7 +9257,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>245</v>
@@ -9278,7 +9277,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="47" t="s">
         <v>236</v>
       </c>
@@ -9300,7 +9299,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>42370</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>54</v>
@@ -9346,7 +9345,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>54</v>
@@ -9368,7 +9367,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>249</v>
@@ -9388,7 +9387,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42401</v>
       </c>
@@ -9412,7 +9411,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42430</v>
       </c>
@@ -9436,7 +9435,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42461</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>55</v>
@@ -9482,7 +9481,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>54</v>
@@ -9504,7 +9503,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>254</v>
@@ -9524,7 +9523,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42491</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>167</v>
@@ -9570,7 +9569,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42522</v>
       </c>
@@ -9590,7 +9589,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42552</v>
       </c>
@@ -9610,7 +9609,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42583</v>
       </c>
@@ -9630,7 +9629,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42614</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>255</v>
@@ -9676,7 +9675,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42644</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>256</v>
@@ -9722,7 +9721,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42675</v>
       </c>
@@ -9746,7 +9745,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42705</v>
       </c>
@@ -9770,7 +9769,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>258</v>
@@ -9790,7 +9789,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="47" t="s">
         <v>235</v>
       </c>
@@ -9812,7 +9811,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42736</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42767</v>
       </c>
@@ -9856,7 +9855,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42795</v>
       </c>
@@ -9876,7 +9875,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42826</v>
       </c>
@@ -9896,7 +9895,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>42856</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42887</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>265</v>
@@ -9968,7 +9967,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42917</v>
       </c>
@@ -9992,7 +9991,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42948</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>268</v>
@@ -10038,7 +10037,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42979</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>271</v>
@@ -10084,7 +10083,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43009</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>92</v>
@@ -10132,7 +10131,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>52</v>
@@ -10154,7 +10153,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43040</v>
       </c>
@@ -10174,7 +10173,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43070</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="47" t="s">
         <v>234</v>
       </c>
@@ -10222,7 +10221,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43101</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>131</v>
@@ -10270,7 +10269,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43132</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43160</v>
       </c>
@@ -10316,7 +10315,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43191</v>
       </c>
@@ -10336,7 +10335,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43221</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>280</v>
@@ -10382,7 +10381,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43252</v>
       </c>
@@ -10402,7 +10401,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43282</v>
       </c>
@@ -10422,7 +10421,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43313</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -10466,7 +10465,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43344</v>
       </c>
@@ -10492,7 +10491,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>286</v>
@@ -10512,7 +10511,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43374</v>
       </c>
@@ -10538,7 +10537,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43405</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43435</v>
       </c>
@@ -10588,7 +10587,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>210</v>
@@ -10608,7 +10607,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="47" t="s">
         <v>233</v>
       </c>
@@ -10626,7 +10625,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43466</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43497</v>
       </c>
@@ -10676,7 +10675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43525</v>
       </c>
@@ -10696,7 +10695,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43556</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>124</v>
@@ -10744,7 +10743,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43586</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>152</v>
@@ -10792,7 +10791,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43617</v>
       </c>
@@ -10812,7 +10811,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43647</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43678</v>
       </c>
@@ -10858,7 +10857,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43709</v>
       </c>
@@ -10880,7 +10879,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43739</v>
       </c>
@@ -10900,7 +10899,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43770</v>
       </c>
@@ -10920,7 +10919,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43800</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>108</v>
@@ -10968,7 +10967,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="47" t="s">
         <v>292</v>
       </c>
@@ -10990,7 +10989,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43831</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43862</v>
       </c>
@@ -11034,7 +11033,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43891</v>
       </c>
@@ -11054,7 +11053,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43922</v>
       </c>
@@ -11074,7 +11073,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43952</v>
       </c>
@@ -11094,7 +11093,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43983</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>66</v>
@@ -11140,7 +11139,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>52</v>
@@ -11162,7 +11161,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44013</v>
       </c>
@@ -11182,7 +11181,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44044</v>
       </c>
@@ -11202,7 +11201,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44075</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44105</v>
       </c>
@@ -11245,7 +11244,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44136</v>
       </c>
@@ -11262,7 +11261,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44166</v>
       </c>
@@ -11283,7 +11282,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="47" t="s">
         <v>307</v>
       </c>
@@ -11301,7 +11300,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44197</v>
       </c>
@@ -11321,7 +11320,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44228</v>
       </c>
@@ -11341,7 +11340,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44256</v>
       </c>
@@ -11361,7 +11360,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44287</v>
       </c>
@@ -11381,7 +11380,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44317</v>
       </c>
@@ -11401,7 +11400,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44348</v>
       </c>
@@ -11421,7 +11420,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44378</v>
       </c>
@@ -11441,7 +11440,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44409</v>
       </c>
@@ -11461,7 +11460,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44440</v>
       </c>
@@ -11481,7 +11480,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44470</v>
       </c>
@@ -11501,7 +11500,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44501</v>
       </c>
@@ -11521,7 +11520,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44531</v>
       </c>
@@ -11545,7 +11544,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="47" t="s">
         <v>308</v>
       </c>
@@ -11563,7 +11562,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44562</v>
       </c>
@@ -11583,7 +11582,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44593</v>
       </c>
@@ -11603,7 +11602,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44621</v>
       </c>
@@ -11623,7 +11622,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44652</v>
       </c>
@@ -11643,7 +11642,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44682</v>
       </c>
@@ -11663,7 +11662,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44713</v>
       </c>
@@ -11683,7 +11682,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44743</v>
       </c>
@@ -11703,7 +11702,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44774</v>
       </c>
@@ -11723,7 +11722,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44805</v>
       </c>
@@ -11743,7 +11742,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44835</v>
       </c>
@@ -11763,7 +11762,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44866</v>
       </c>
@@ -11783,7 +11782,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44896</v>
       </c>
@@ -11807,7 +11806,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="47" t="s">
         <v>309</v>
       </c>
@@ -11825,7 +11824,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44927</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44958</v>
       </c>
@@ -11869,7 +11868,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44986</v>
       </c>
@@ -11889,7 +11888,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45017</v>
       </c>
@@ -11909,7 +11908,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>45047</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>45078</v>
       </c>
@@ -11955,7 +11954,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45108</v>
       </c>
@@ -11975,7 +11974,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>45139</v>
       </c>
@@ -11995,7 +11994,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45170</v>
       </c>
@@ -12015,7 +12014,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>45200</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>92</v>
@@ -12063,7 +12062,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45231</v>
       </c>
@@ -12083,7 +12082,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45261</v>
       </c>
@@ -12107,7 +12106,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="47" t="s">
         <v>316</v>
       </c>
@@ -12125,20 +12124,22 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45292</v>
       </c>
       <c r="B374" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C374" s="13"/>
+      <c r="C374" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D374" s="39"/>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G374" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
@@ -12147,7 +12148,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>66</v>
@@ -12169,7 +12170,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>45323</v>
       </c>
@@ -12187,7 +12188,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45352</v>
       </c>
@@ -12205,7 +12206,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45383</v>
       </c>
@@ -12223,7 +12224,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45413</v>
       </c>
@@ -12241,7 +12242,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45444</v>
       </c>
@@ -12259,7 +12260,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45474</v>
       </c>
@@ -12277,7 +12278,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45505</v>
       </c>
@@ -12295,7 +12296,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45536</v>
       </c>
@@ -12313,7 +12314,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45566</v>
       </c>
@@ -12331,7 +12332,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45597</v>
       </c>
@@ -12349,7 +12350,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>45627</v>
       </c>
@@ -12367,7 +12368,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>45658</v>
       </c>
@@ -12385,7 +12386,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>45689</v>
       </c>
@@ -12403,7 +12404,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>45717</v>
       </c>
@@ -12421,7 +12422,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>45748</v>
       </c>
@@ -12439,7 +12440,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45778</v>
       </c>
@@ -12457,7 +12458,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45809</v>
       </c>
@@ -12475,7 +12476,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45839</v>
       </c>
@@ -12493,7 +12494,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45870</v>
       </c>
@@ -12511,7 +12512,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45901</v>
       </c>
@@ -12529,7 +12530,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45931</v>
       </c>
@@ -12547,7 +12548,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45962</v>
       </c>
@@ -12565,7 +12566,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45992</v>
       </c>
@@ -12583,7 +12584,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>46023</v>
       </c>
@@ -12601,7 +12602,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>46054</v>
       </c>
@@ -12619,7 +12620,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>46082</v>
       </c>
@@ -12637,7 +12638,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>46113</v>
       </c>
@@ -12655,7 +12656,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>46143</v>
       </c>
@@ -12673,7 +12674,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>46174</v>
       </c>
@@ -12691,7 +12692,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>46204</v>
       </c>
@@ -12709,7 +12710,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>46235</v>
       </c>
@@ -12727,7 +12728,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>46266</v>
       </c>
@@ -12745,7 +12746,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>46296</v>
       </c>
@@ -12763,7 +12764,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>46327</v>
       </c>
@@ -12781,7 +12782,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>46357</v>
       </c>
@@ -12799,7 +12800,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>46388</v>
       </c>
@@ -12817,7 +12818,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>46419</v>
       </c>
@@ -12835,7 +12836,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>46447</v>
       </c>
@@ -12853,7 +12854,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>46478</v>
       </c>
@@ -12871,7 +12872,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>46508</v>
       </c>
@@ -12889,7 +12890,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>46539</v>
       </c>
@@ -12907,7 +12908,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>46569</v>
       </c>
@@ -12925,7 +12926,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>46600</v>
       </c>
@@ -12943,7 +12944,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>46631</v>
       </c>
@@ -12961,7 +12962,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>46661</v>
       </c>
@@ -12979,7 +12980,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>46692</v>
       </c>
@@ -12997,7 +12998,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>46722</v>
       </c>
@@ -13015,7 +13016,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>46753</v>
       </c>
@@ -13033,7 +13034,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>46784</v>
       </c>
@@ -13051,7 +13052,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>46813</v>
       </c>
@@ -13069,7 +13070,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>46844</v>
       </c>
@@ -13087,7 +13088,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>46874</v>
       </c>
@@ -13105,7 +13106,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46905</v>
       </c>
@@ -13123,7 +13124,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46935</v>
       </c>
@@ -13141,7 +13142,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>46966</v>
       </c>
@@ -13159,7 +13160,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46997</v>
       </c>
@@ -13177,7 +13178,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>47027</v>
       </c>
@@ -13195,7 +13196,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>47058</v>
       </c>
@@ -13213,7 +13214,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>47088</v>
       </c>
@@ -13231,7 +13232,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>47119</v>
       </c>
@@ -13249,7 +13250,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>47150</v>
       </c>
@@ -13267,7 +13268,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>47178</v>
       </c>
@@ -13285,7 +13286,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>47209</v>
       </c>
@@ -13303,7 +13304,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>47239</v>
       </c>
@@ -13321,7 +13322,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>47270</v>
       </c>
@@ -13339,7 +13340,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>47300</v>
       </c>
@@ -13357,7 +13358,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>47331</v>
       </c>
@@ -13375,7 +13376,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>47362</v>
       </c>
@@ -13393,7 +13394,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>47392</v>
       </c>
@@ -13411,7 +13412,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>47423</v>
       </c>
@@ -13429,7 +13430,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>47453</v>
       </c>
@@ -13447,7 +13448,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>47484</v>
       </c>
@@ -13465,7 +13466,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>47515</v>
       </c>
@@ -13483,7 +13484,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>47543</v>
       </c>
@@ -13501,7 +13502,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>47574</v>
       </c>
@@ -13519,7 +13520,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>47604</v>
       </c>
@@ -13537,7 +13538,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>47635</v>
       </c>
@@ -13555,7 +13556,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>47665</v>
       </c>
@@ -13573,7 +13574,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>47696</v>
       </c>
@@ -13591,7 +13592,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>47727</v>
       </c>
@@ -13609,7 +13610,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>47757</v>
       </c>
@@ -13627,7 +13628,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>47788</v>
       </c>
@@ -13645,7 +13646,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>47818</v>
       </c>
@@ -13663,7 +13664,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>47849</v>
       </c>
@@ -13681,7 +13682,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>47880</v>
       </c>
@@ -13699,7 +13700,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>47908</v>
       </c>
@@ -13717,7 +13718,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>47939</v>
       </c>
@@ -13735,7 +13736,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>47969</v>
       </c>
@@ -13753,7 +13754,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>48000</v>
       </c>
@@ -13771,7 +13772,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>48030</v>
       </c>
@@ -13789,7 +13790,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>48061</v>
       </c>
@@ -13807,7 +13808,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>48092</v>
       </c>
@@ -13825,7 +13826,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>48122</v>
       </c>
@@ -13843,7 +13844,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>48153</v>
       </c>
@@ -13861,7 +13862,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>48183</v>
       </c>
@@ -13879,7 +13880,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>48214</v>
       </c>
@@ -13897,7 +13898,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>48245</v>
       </c>
@@ -13915,7 +13916,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>48274</v>
       </c>
@@ -13933,7 +13934,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>48305</v>
       </c>
@@ -13951,7 +13952,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>48335</v>
       </c>
@@ -13969,7 +13970,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>48366</v>
       </c>
@@ -13987,7 +13988,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>48396</v>
       </c>
@@ -14005,7 +14006,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>48427</v>
       </c>
@@ -14023,7 +14024,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>48458</v>
       </c>
@@ -14041,7 +14042,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>48488</v>
       </c>
@@ -14059,7 +14060,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>48519</v>
       </c>
@@ -14077,7 +14078,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>48549</v>
       </c>
@@ -14095,7 +14096,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>48580</v>
       </c>
@@ -14113,7 +14114,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>48611</v>
       </c>
@@ -14131,7 +14132,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>48639</v>
       </c>
@@ -14149,7 +14150,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>48670</v>
       </c>
@@ -14167,7 +14168,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>48700</v>
       </c>
@@ -14185,7 +14186,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>48731</v>
       </c>
@@ -14203,7 +14204,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>48761</v>
       </c>
@@ -14221,7 +14222,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>48792</v>
       </c>
@@ -14239,7 +14240,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>48823</v>
       </c>
@@ -14257,7 +14258,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>48853</v>
       </c>
@@ -14275,7 +14276,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>48884</v>
       </c>
@@ -14293,7 +14294,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>48914</v>
       </c>
@@ -14311,7 +14312,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>48945</v>
       </c>
@@ -14329,7 +14330,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>48976</v>
       </c>
@@ -14347,7 +14348,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>49004</v>
       </c>
@@ -14365,7 +14366,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>49035</v>
       </c>
@@ -14383,7 +14384,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>49065</v>
       </c>
@@ -14401,7 +14402,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>49096</v>
       </c>
@@ -14419,7 +14420,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>49126</v>
       </c>
@@ -14437,7 +14438,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>49157</v>
       </c>
@@ -14455,7 +14456,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>49188</v>
       </c>
@@ -14473,7 +14474,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>49218</v>
       </c>
@@ -14491,7 +14492,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>49249</v>
       </c>
@@ -14509,7 +14510,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>49279</v>
       </c>
@@ -14527,7 +14528,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>49310</v>
       </c>
@@ -14545,7 +14546,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>49341</v>
       </c>
@@ -14563,7 +14564,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>49369</v>
       </c>
@@ -14581,7 +14582,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>49400</v>
       </c>
@@ -14599,7 +14600,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>49430</v>
       </c>
@@ -14617,7 +14618,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>49461</v>
       </c>
@@ -14635,7 +14636,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>49491</v>
       </c>
@@ -14668,10 +14669,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14694,29 +14695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -14729,7 +14730,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14758,7 +14759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.95799999999999996</v>
       </c>
@@ -14786,20 +14787,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>0.42099999999999999</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14823,7 +14824,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14850,7 +14851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14928,7 +14929,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14954,7 +14955,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15006,7 +15007,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15052,7 +15053,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15072,7 +15073,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15134,7 +15135,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15176,7 +15177,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15302,7 +15303,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15344,7 +15345,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15386,7 +15387,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15428,7 +15429,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15491,7 +15492,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15512,7 +15513,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15521,7 +15522,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15530,7 +15531,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15539,7 +15540,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15548,7 +15549,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15557,7 +15558,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15566,7 +15567,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15575,7 +15576,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15584,7 +15585,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15593,7 +15594,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15602,7 +15603,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15611,7 +15612,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15620,7 +15621,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15629,7 +15630,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15638,7 +15639,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15647,7 +15648,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15656,7 +15657,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15665,7 +15666,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15674,7 +15675,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15683,7 +15684,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15692,7 +15693,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15701,7 +15702,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15710,7 +15711,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15719,7 +15720,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15728,7 +15729,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15737,7 +15738,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15746,7 +15747,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15755,7 +15756,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15764,7 +15765,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15773,7 +15774,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/DSWD/AMBONAN, AVELINA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="319">
   <si>
     <t>PERIOD</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>1/2-4/2024</t>
+  </si>
+  <si>
+    <t>01/29-31/2024,02/01,02/2024</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1859,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1902,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1966,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2026,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2092,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2155,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2253,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2312,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2377,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2420,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2495,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2681,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2747,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2805,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2871,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +2927,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3002,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3045,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3111,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3167,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3265,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3328,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3772,10 +3775,10 @@
   </sheetPr>
   <dimension ref="A2:K513"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A367" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="D375" sqref="D375"/>
+      <selection pane="bottomLeft" activeCell="S376" sqref="S376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3948,7 +3951,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.050000000000011</v>
+        <v>34.050000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12174,7 +12177,9 @@
       <c r="A376" s="40">
         <v>45323</v>
       </c>
-      <c r="B376" s="20"/>
+      <c r="B376" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
@@ -12183,10 +12188,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H376" s="39"/>
+      <c r="H376" s="39">
+        <v>5</v>
+      </c>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
+      <c r="K376" s="20" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
@@ -14699,7 +14708,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
